--- a/analysis/compare_xc.xlsx
+++ b/analysis/compare_xc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="13320" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="13320" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="unc_mean" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="comp_rmse_cart" sheetId="11" r:id="rId8"/>
     <sheet name="comp_rmse_svm" sheetId="10" r:id="rId9"/>
     <sheet name="comp_rmse_ipsm" sheetId="12" r:id="rId10"/>
+    <sheet name="rmse_std" sheetId="13" r:id="rId11"/>
+    <sheet name="rmse_mean" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="54">
   <si>
     <t>基于不确定性的自适应采样</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,12 +138,106 @@
     <t>RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>补样数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>iPSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自适应补样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非自适应补样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分层随机补样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补样方法  分层随机补样  基于不确定性的自适应补样  基于不确定性的非自适应补样</t>
+  </si>
+  <si>
+    <t>补样数量</t>
+  </si>
+  <si>
+    <t>rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipsm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10    9.7259        9.3919         9.4758</t>
+  </si>
+  <si>
+    <t>20    9.4250        9.2496         9.2419</t>
+  </si>
+  <si>
+    <t>30    9.1229        8.8902         8.8916</t>
+  </si>
+  <si>
+    <t>10    9.2010        9.0823         9.0768</t>
+  </si>
+  <si>
+    <t>20    8.9803        8.6389         8.7791</t>
+  </si>
+  <si>
+    <t>30    9.0151        8.7069         8.8326</t>
+  </si>
+  <si>
+    <t>补样方法  分层随机补样  基于不确定性的自适应补样  基于不确定性的非自适应补样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10    9.5077        8.9443         9.1059</t>
+  </si>
+  <si>
+    <t>20    9.3465        8.7989         8.9772</t>
+  </si>
+  <si>
+    <t>30    9.2902        8.7768         8.7868</t>
+  </si>
+  <si>
+    <t>样点数量最多时(30个补样点)的RMSE降低百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.55%  0.02%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.31%  0.11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.42%  1.42%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +251,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -187,6 +289,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1707,11 +1818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176273200"/>
-        <c:axId val="176273760"/>
+        <c:axId val="285056704"/>
+        <c:axId val="285057264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176273200"/>
+        <c:axId val="285056704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1920,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176273760"/>
+        <c:crossAx val="285057264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1817,7 +1928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176273760"/>
+        <c:axId val="285057264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="7.0000000000000007E-2"/>
@@ -1924,7 +2035,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176273200"/>
+        <c:crossAx val="285056704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3516,11 +3627,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176279360"/>
-        <c:axId val="176279920"/>
+        <c:axId val="285239376"/>
+        <c:axId val="285239936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176279360"/>
+        <c:axId val="285239376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3618,7 +3729,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176279920"/>
+        <c:crossAx val="285239936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3626,7 +3737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176279920"/>
+        <c:axId val="285239936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -3733,7 +3844,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176279360"/>
+        <c:crossAx val="285239376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3961,11 +4072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176282720"/>
-        <c:axId val="176283280"/>
+        <c:axId val="285242736"/>
+        <c:axId val="285289584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176282720"/>
+        <c:axId val="285242736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,7 +4174,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176283280"/>
+        <c:crossAx val="285289584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176283280"/>
+        <c:axId val="285289584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.1"/>
@@ -4178,7 +4289,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176282720"/>
+        <c:crossAx val="285242736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4375,11 +4486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176285520"/>
-        <c:axId val="176286080"/>
+        <c:axId val="285291824"/>
+        <c:axId val="285292384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176285520"/>
+        <c:axId val="285291824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4477,7 +4588,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176286080"/>
+        <c:crossAx val="285292384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4485,7 +4596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176286080"/>
+        <c:axId val="285292384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.15000000000000002"/>
@@ -4593,7 +4704,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176285520"/>
+        <c:crossAx val="285291824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6100,11 +6211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177219648"/>
-        <c:axId val="177220208"/>
+        <c:axId val="281037072"/>
+        <c:axId val="281037632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177219648"/>
+        <c:axId val="281037072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6202,7 +6313,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177220208"/>
+        <c:crossAx val="281037632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6210,7 +6321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177220208"/>
+        <c:axId val="281037632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23"/>
@@ -6318,7 +6429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177219648"/>
+        <c:crossAx val="281037072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7866,11 +7977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177225808"/>
-        <c:axId val="177226368"/>
+        <c:axId val="281204128"/>
+        <c:axId val="281204688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177225808"/>
+        <c:axId val="281204128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7968,7 +8079,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177226368"/>
+        <c:crossAx val="281204688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7976,7 +8087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177226368"/>
+        <c:axId val="281204688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="17"/>
@@ -8093,7 +8204,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177225808"/>
+        <c:crossAx val="281204128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9631,11 +9742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177231968"/>
-        <c:axId val="177232528"/>
+        <c:axId val="285473424"/>
+        <c:axId val="285473984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177231968"/>
+        <c:axId val="285473424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9733,7 +9844,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177232528"/>
+        <c:crossAx val="285473984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9741,7 +9852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177232528"/>
+        <c:axId val="285473984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.5"/>
@@ -9861,7 +9972,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177231968"/>
+        <c:crossAx val="285473424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15047,7 +15158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -16063,6 +16174,307 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5.8230999999999998E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.109212</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.20228399999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.6276000000000005E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8.7219000000000005E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.43086799999999997</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.143897</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.14551700000000001</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.32870899999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.1933E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.4796000000000001E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.9425000000000004E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8.6219000000000004E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.6059999999999998E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.27695700000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6.0261000000000002E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9.5930000000000001E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.24603700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.6987999999999997E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.9677000000000002E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8.5059999999999997E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8.5519999999999999E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.27711200000000002</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.4193999999999997E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5.4683000000000002E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.30760199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="89" customWidth="1"/>
+    <col min="2" max="2" width="49.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
